--- a/resources/excel/cipta_karya.xlsx
+++ b/resources/excel/cipta_karya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f0ef5f86b9659cf/Documents/test-pupr/coba-project/E-Catalogue/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B72C8B7-F26F-4B97-94AD-B849F52BCC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{3B72C8B7-F26F-4B97-94AD-B849F52BCC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E79CAD51-5D76-4B51-8D6D-1A4C3450C5AD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{A185393D-B717-4C9C-8475-6570F895FF45}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Balai Prasarana Permukiman Wilayah Aceh</t>
   </si>
@@ -142,33 +142,6 @@
   </si>
   <si>
     <t>Balai Teknologi Sanitasi</t>
-  </si>
-  <si>
-    <t>Sekretariat DIrektorat Jenderal Cipta Karya</t>
-  </si>
-  <si>
-    <t>Direktorat Bina Teknik Permukiman dan Perumahan</t>
-  </si>
-  <si>
-    <t>Direktorat Kepatuhan Intern</t>
-  </si>
-  <si>
-    <t>Direktorat Sistem dan Strategi Penyelenggaraan Infrastruktur Permukiman</t>
-  </si>
-  <si>
-    <t>Direktorat Bina Penataan Bangunan</t>
-  </si>
-  <si>
-    <t>Direktorat Air Minum</t>
-  </si>
-  <si>
-    <t>Direktorat Sanitasi</t>
-  </si>
-  <si>
-    <t>Direktorat Prasarana Strategis</t>
-  </si>
-  <si>
-    <t>Direktorat Pengembangan Kawasan Permukiman</t>
   </si>
 </sst>
 </file>
@@ -520,13 +493,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772F6D13-5F31-4772-B1F4-2C3117472590}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B48"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="65.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -840,78 +816,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
